--- a/test_result.xlsx
+++ b/test_result.xlsx
@@ -8,7 +8,6 @@
   </bookViews>
   <sheets>
     <sheet name="Sheet" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="new_sheet1" sheetId="2" state="visible" r:id="rId2"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -18,13 +17,24 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="3">
     <font>
       <name val="Calibri"/>
       <family val="2"/>
       <color theme="1"/>
       <sz val="11"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <b val="1"/>
+      <i val="1"/>
+      <color rgb="00FF0000"/>
+      <sz val="20"/>
+    </font>
+    <font>
+      <name val="굴림"/>
+      <color rgb="00000000"/>
+      <sz val="12"/>
     </font>
   </fonts>
   <fills count="2">
@@ -47,8 +57,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
@@ -414,32 +426,29 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:A1"/>
+  <dimension ref="A1:A2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Font test1</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="inlineStr">
+        <is>
+          <t>Font test2</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>